--- a/C200_Official/wwwroot/ExcelFiles/ExcelSpreadsheet_Articles.xlsx
+++ b/C200_Official/wwwroot/ExcelFiles/ExcelSpreadsheet_Articles.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Worksheet 1" sheetId="1" r:id="Rb4d2e183736843ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Worksheet 1" sheetId="1" r:id="Rd6b6e63ec5714f71"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -15,7 +15,7 @@
         <x:v> jonathan_lee]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> jonathan_lee@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -23,7 +23,7 @@
         <x:v> felicia_kang]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> felicia_kangabc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -31,7 +31,7 @@
         <x:v> dorothy_ta]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> dorothy_ta@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -39,7 +39,7 @@
         <x:v> rancor_kang]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> rancor_kang@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -47,7 +47,7 @@
         <x:v> brutus_loyal]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> brutus_loyal@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -55,7 +55,7 @@
         <x:v> paper_clip]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> paper_clip@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -63,7 +63,7 @@
         <x:v> alicia_quek]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> alicia_quek@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -71,7 +71,7 @@
         <x:v> alexandra_jonas]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> alexandra_jonas@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -79,7 +79,7 @@
         <x:v> clarp_ten]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> clarp_ten@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -87,7 +87,7 @@
         <x:v> lois_nine]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> lois_nine@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -95,7 +95,7 @@
         <x:v> purple_master]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> purple_master@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
       </x:c>
     </x:row>
     <x:row r="1">
@@ -103,7 +103,327 @@
         <x:v> rassa_twina]</x:v>
       </x:c>
       <x:c t="str">
-        <x:v> rassa_twina@abc.com]</x:v>
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> john_tan]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> louiseairahnicole@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> stephanie_yeo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> aaron_yup]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> nclthr@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> jason_neo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> florian.muljono@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> john_tan]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> louiseairahnicole@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> stephanie_yeo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> aaron_yup]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> nclthr@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> jason_neo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> florian.muljono@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> john_tan]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> louiseairahnicole@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> stephanie_yeo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> aaron_yup]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> nclthr@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> jason_neo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> florian.muljono@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> john_tan]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> louiseairahnicole@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> stephanie_yeo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> aaron_yup]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> nclthr@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> jason_neo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> florian.muljono@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> john_tan]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> louiseairahnicole@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> stephanie_yeo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> aaron_yup]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> nclthr@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> jason_neo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> florian.muljono@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> john_tan]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> louiseairahnicole@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> stephanie_yeo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> aaron_yup]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> nclthr@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> jason_neo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> florian.muljono@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> john_tan]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> louiseairahnicole@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> stephanie_yeo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> aaron_yup]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> nclthr@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> jason_neo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> florian.muljono@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> john_tan]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> louiseairahnicole@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> stephanie_yeo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> aaron_yup]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> nclthr@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> jason_neo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> florian.muljono@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> john_tan]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> louiseairahnicole@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> stephanie_yeo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> aaron_yup]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> nclthr@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> jason_neo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> florian.muljono@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> john_tan]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> louiseairahnicole@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> stephanie_yeo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> 20007073@myrp.edu.sg]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> aaron_yup]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> nclthr@gmail.com]</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v> jason_neo]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v> florian.muljono@gmail.com]</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
